--- a/DataTables/Datas/Example/BaseStruct.xlsx
+++ b/DataTables/Datas/Example/BaseStruct.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="153">
   <si>
     <t>##var</t>
   </si>
@@ -84,7 +97,7 @@
     <t>long</t>
   </si>
   <si>
-    <t>text#sep=|</t>
+    <t>text</t>
   </si>
   <si>
     <t>vector3</t>
@@ -144,7 +157,7 @@
     <t>1234567890123456789</t>
   </si>
   <si>
-    <t>word1|word2</t>
+    <t>/treasure_chest</t>
   </si>
   <si>
     <t>1,1,1</t>
@@ -177,9 +190,6 @@
     <t>名字2</t>
   </si>
   <si>
-    <t>word1|word3</t>
-  </si>
-  <si>
     <t>1,1,2</t>
   </si>
   <si>
@@ -207,9 +217,6 @@
     <t>名字3</t>
   </si>
   <si>
-    <t>word1|word4</t>
-  </si>
-  <si>
     <t>1,1,3</t>
   </si>
   <si>
@@ -237,9 +244,6 @@
     <t>名字4</t>
   </si>
   <si>
-    <t>word1|word5</t>
-  </si>
-  <si>
     <t>1,1,4</t>
   </si>
   <si>
@@ -267,9 +271,6 @@
     <t>名字5</t>
   </si>
   <si>
-    <t>word1|word6</t>
-  </si>
-  <si>
     <t>1,1,5</t>
   </si>
   <si>
@@ -297,9 +298,6 @@
     <t>名字6</t>
   </si>
   <si>
-    <t>word1|word7</t>
-  </si>
-  <si>
     <t>1,1,6</t>
   </si>
   <si>
@@ -321,9 +319,6 @@
     <t>名字7</t>
   </si>
   <si>
-    <t>word1|word8</t>
-  </si>
-  <si>
     <t>1,1,7</t>
   </si>
   <si>
@@ -345,9 +340,6 @@
     <t>名字8</t>
   </si>
   <si>
-    <t>word1|word9</t>
-  </si>
-  <si>
     <t>1,1,8</t>
   </si>
   <si>
@@ -369,9 +361,6 @@
     <t>名字9</t>
   </si>
   <si>
-    <t>word1|word10</t>
-  </si>
-  <si>
     <t>1,1,9</t>
   </si>
   <si>
@@ -393,9 +382,6 @@
     <t>名字10</t>
   </si>
   <si>
-    <t>word1|word11</t>
-  </si>
-  <si>
     <t>1,1,10</t>
   </si>
   <si>
@@ -417,9 +403,6 @@
     <t>名字11</t>
   </si>
   <si>
-    <t>word1|word12</t>
-  </si>
-  <si>
     <t>1,1,11</t>
   </si>
   <si>
@@ -435,9 +418,6 @@
     <t>名字12</t>
   </si>
   <si>
-    <t>word1|word13</t>
-  </si>
-  <si>
     <t>1,1,12</t>
   </si>
   <si>
@@ -453,9 +433,6 @@
     <t>名字13</t>
   </si>
   <si>
-    <t>word1|word14</t>
-  </si>
-  <si>
     <t>1,1,13</t>
   </si>
   <si>
@@ -471,9 +448,6 @@
     <t>名字14</t>
   </si>
   <si>
-    <t>word1|word15</t>
-  </si>
-  <si>
     <t>1,1,14</t>
   </si>
   <si>
@@ -489,9 +463,6 @@
     <t>名字15</t>
   </si>
   <si>
-    <t>word1|word16</t>
-  </si>
-  <si>
     <t>1,1,15</t>
   </si>
   <si>
@@ -505,9 +476,6 @@
   </si>
   <si>
     <t>名字16</t>
-  </si>
-  <si>
-    <t>word1|word17</t>
   </si>
   <si>
     <t>1,1,16</t>
@@ -525,7 +493,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -548,34 +516,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -589,14 +529,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -636,6 +568,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -686,7 +633,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -707,49 +675,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,115 +807,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,21 +874,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -954,6 +907,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1012,152 +980,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1172,9 +1140,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1194,52 +1159,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1542,7 +1507,7 @@
   <dimension ref="A1:AC23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1566,49 +1531,49 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1616,49 +1581,49 @@
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="X2" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1666,13 +1631,13 @@
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="U3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="V3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="W3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="X3" s="1">
@@ -1689,22 +1654,22 @@
       <c r="A4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="U4" s="9"/>
+      <c r="U4" s="8"/>
     </row>
     <row r="5" ht="20" customHeight="1" spans="2:29">
       <c r="B5" s="3">
@@ -1719,7 +1684,7 @@
       <c r="E5" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -1731,10 +1696,10 @@
       <c r="I5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <v>36443.4668171296</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="6" t="s">
         <v>45</v>
       </c>
       <c r="L5" s="3">
@@ -1805,23 +1770,23 @@
       <c r="E6" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="6">
+        <v>36444.4668171296</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="J6" s="7">
-        <v>36444.4668171296</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="L6" s="3">
         <v>2</v>
@@ -1842,22 +1807,22 @@
         <v>46</v>
       </c>
       <c r="R6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="U6" s="3">
         <v>2</v>
       </c>
       <c r="V6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="W6" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="X6" s="3">
         <v>102</v>
@@ -1883,7 +1848,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" s="3">
         <v>5.14</v>
@@ -1891,23 +1856,23 @@
       <c r="E7" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="J7" s="6">
+        <v>36445.4668171296</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J7" s="7">
-        <v>36445.4668171296</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="L7" s="3">
         <v>3</v>
@@ -1928,22 +1893,22 @@
         <v>46</v>
       </c>
       <c r="R7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="T7" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="U7" s="3">
         <v>3</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="X7" s="3">
         <v>103</v>
@@ -1969,7 +1934,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D8" s="3">
         <v>6.14</v>
@@ -1977,23 +1942,23 @@
       <c r="E8" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="6">
+        <v>36446.4668171296</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="J8" s="7">
-        <v>36446.4668171296</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="L8" s="3">
         <v>4</v>
@@ -2011,22 +1976,22 @@
         <v>46</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="U8" s="3">
         <v>4</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="X8" s="3">
         <v>104</v>
@@ -2052,7 +2017,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D9" s="3">
         <v>7.14</v>
@@ -2060,23 +2025,23 @@
       <c r="E9" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="J9" s="7">
+        <v>81</v>
+      </c>
+      <c r="J9" s="6">
         <v>36447.4668171296</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>86</v>
+      <c r="K9" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="L9" s="3">
         <v>5</v>
@@ -2094,22 +2059,22 @@
         <v>46</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="U9" s="3">
         <v>5</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="X9" s="3">
         <v>105</v>
@@ -2135,7 +2100,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D10" s="3">
         <v>8.14</v>
@@ -2143,23 +2108,23 @@
       <c r="E10" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J10" s="7">
+        <v>90</v>
+      </c>
+      <c r="J10" s="6">
         <v>36448.4668171296</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>96</v>
+      <c r="K10" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="L10" s="3">
         <v>6</v>
@@ -2177,16 +2142,16 @@
         <v>46</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="U10" s="3">
         <v>6</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="X10" s="3">
         <v>106</v>
@@ -2212,7 +2177,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D11" s="3">
         <v>9.14</v>
@@ -2220,23 +2185,23 @@
       <c r="E11" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="J11" s="7">
+        <v>97</v>
+      </c>
+      <c r="J11" s="6">
         <v>36449.4668171296</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>104</v>
+      <c r="K11" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="L11" s="3">
         <v>7</v>
@@ -2254,16 +2219,16 @@
         <v>46</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="U11" s="3">
         <v>7</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="X11" s="3">
         <v>107</v>
@@ -2289,7 +2254,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D12" s="3">
         <v>10.14</v>
@@ -2297,23 +2262,23 @@
       <c r="E12" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="J12" s="7">
+        <v>104</v>
+      </c>
+      <c r="J12" s="6">
         <v>36450.4668171296</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>112</v>
+      <c r="K12" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="L12" s="3">
         <v>8</v>
@@ -2328,16 +2293,16 @@
         <v>46</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="U12" s="3">
         <v>8</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="X12" s="3">
         <v>108</v>
@@ -2363,7 +2328,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D13" s="3">
         <v>11.14</v>
@@ -2371,23 +2336,23 @@
       <c r="E13" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="J13" s="7">
+        <v>111</v>
+      </c>
+      <c r="J13" s="6">
         <v>36451.4668171296</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>120</v>
+      <c r="K13" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="L13" s="3">
         <v>9</v>
@@ -2402,16 +2367,16 @@
         <v>46</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="U13" s="3">
         <v>9</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="X13" s="3">
         <v>109</v>
@@ -2431,7 +2396,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D14" s="3">
         <v>12.14</v>
@@ -2439,23 +2404,23 @@
       <c r="E14" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="J14" s="7">
+        <v>118</v>
+      </c>
+      <c r="J14" s="6">
         <v>36452.4668171296</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>128</v>
+      <c r="K14" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="L14" s="3">
         <v>10</v>
@@ -2467,16 +2432,16 @@
         <v>46</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="U14" s="3">
         <v>10</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="X14" s="3">
         <v>110</v>
@@ -2496,7 +2461,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D15" s="3">
         <v>13.14</v>
@@ -2504,23 +2469,23 @@
       <c r="E15" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="J15" s="7">
+        <v>125</v>
+      </c>
+      <c r="J15" s="6">
         <v>36453.4668171296</v>
       </c>
-      <c r="K15" s="7" t="s">
-        <v>136</v>
+      <c r="K15" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="L15" s="3">
         <v>11</v>
@@ -2532,7 +2497,7 @@
         <v>46</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="U15" s="3">
         <v>11</v>
@@ -2555,7 +2520,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D16" s="3">
         <v>14.14</v>
@@ -2563,23 +2528,23 @@
       <c r="E16" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>139</v>
+        <v>42</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="J16" s="7">
+        <v>130</v>
+      </c>
+      <c r="J16" s="6">
         <v>36454.4668171296</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>142</v>
+      <c r="K16" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="L16" s="3">
         <v>12</v>
@@ -2591,7 +2556,7 @@
         <v>46</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="U16" s="3">
         <v>12</v>
@@ -2614,7 +2579,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D17" s="3">
         <v>15.14</v>
@@ -2622,23 +2587,23 @@
       <c r="E17" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="J17" s="7">
+        <v>135</v>
+      </c>
+      <c r="J17" s="6">
         <v>36455.4668171296</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>148</v>
+      <c r="K17" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="L17" s="3">
         <v>13</v>
@@ -2647,7 +2612,7 @@
         <v>46</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="U17" s="3">
         <v>13</v>
@@ -2670,7 +2635,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="D18" s="3">
         <v>16.14</v>
@@ -2678,23 +2643,23 @@
       <c r="E18" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>151</v>
+        <v>42</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="J18" s="7">
+        <v>140</v>
+      </c>
+      <c r="J18" s="6">
         <v>36456.4668171296</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>154</v>
+      <c r="K18" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="L18" s="3">
         <v>14</v>
@@ -2703,7 +2668,7 @@
         <v>46</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="U18" s="3">
         <v>14</v>
@@ -2726,7 +2691,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="D19" s="3">
         <v>17.14</v>
@@ -2734,23 +2699,23 @@
       <c r="E19" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="J19" s="7">
+        <v>145</v>
+      </c>
+      <c r="J19" s="6">
         <v>36457.4668171296</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>160</v>
+      <c r="K19" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="L19" s="3">
         <v>15</v>
@@ -2759,7 +2724,7 @@
         <v>46</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="U19" s="3">
         <v>15</v>
@@ -2782,7 +2747,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="D20" s="3">
         <v>18.14</v>
@@ -2790,23 +2755,23 @@
       <c r="E20" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="J20" s="7">
+        <v>150</v>
+      </c>
+      <c r="J20" s="6">
         <v>36458.4668171296</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>166</v>
+      <c r="K20" s="6" t="s">
+        <v>151</v>
       </c>
       <c r="L20" s="3">
         <v>16</v>
@@ -2815,7 +2780,7 @@
         <v>46</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="U20" s="3">
         <v>16</v>
@@ -2834,7 +2799,7 @@
       </c>
     </row>
     <row r="23" spans="11:11">
-      <c r="K23" s="8"/>
+      <c r="K23" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -2860,7 +2825,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="F7:F21 F5:F6" numberStoredAsText="1"/>
+    <ignoredError sqref="F5:F6 F7:F21" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
